--- a/tanzania_colombia_manifest.xlsx
+++ b/tanzania_colombia_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timmy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{951DA190-3FE1-4B60-8C44-BDC1786DBF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB76F06-8C67-4CE4-892B-9756A146370A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{754BBE98-39DC-4DFB-97FA-7E22791A4F48}"/>
   </bookViews>
@@ -1199,7 +1199,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="00000.0000"/>
+    <numFmt numFmtId="165" formatCode="00000.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1236,7 +1236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1554,13 +1554,13 @@
   <dimension ref="A1:B633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+      <selection activeCell="F620" sqref="F620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1576,8 +1576,8 @@
         <v>11358.130499999999</v>
       </c>
       <c r="B2" t="str">
-        <f>_xlfn.CONCAT("/mnt/datasets/project_2/tanzania/seqs/",TEXT(A2,"00000.0000"))</f>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1305</v>
+        <f>_xlfn.CONCAT("/mnt/datasets/project_2/tanzania/seqs/",TEXT(A2,"00000.0000"),".fastq.gz")</f>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1305.fastq.gz</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1585,8 +1585,8 @@
         <v>11358.1612</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">_xlfn.CONCAT("/mnt/datasets/project_2/tanzania/seqs/",TEXT(A3,"00000.0000"))</f>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1612</v>
+        <f t="shared" ref="B3:B66" si="0">_xlfn.CONCAT("/mnt/datasets/project_2/tanzania/seqs/",TEXT(A3,"00000.0000"),".fastq.gz")</f>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1612.fastq.gz</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1634</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1634.fastq.gz</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2217</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2217.fastq.gz</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1518</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1518.fastq.gz</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2661</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2661.fastq.gz</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1522</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1522.fastq.gz</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1629</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1629.fastq.gz</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1523</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1523.fastq.gz</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1627</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1627.fastq.gz</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1559</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1559.fastq.gz</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1631</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1631.fastq.gz</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1564</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1564.fastq.gz</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1632</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1632.fastq.gz</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1525</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1525.fastq.gz</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1635</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1635.fastq.gz</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2679</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2679.fastq.gz</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1863</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1863.fastq.gz</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2673</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2673.fastq.gz</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1769</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1769.fastq.gz</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2602</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2602.fastq.gz</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1776</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1776.fastq.gz</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2327</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2327.fastq.gz</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1933</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1933.fastq.gz</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2182</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2182.fastq.gz</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1054</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1054.fastq.gz</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1951</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1951.fastq.gz</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1056</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1056.fastq.gz</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1914</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1914.fastq.gz</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1060</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1060.fastq.gz</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1922</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1922.fastq.gz</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2155</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2155.fastq.gz</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1094</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1094.fastq.gz</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2511</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2511.fastq.gz</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1110</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1110.fastq.gz</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2151</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2151.fastq.gz</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1128</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1128.fastq.gz</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1594</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1594.fastq.gz</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1144</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1144.fastq.gz</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1770</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1770.fastq.gz</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2674</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2674.fastq.gz</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1152</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1152.fastq.gz</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1963</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1963.fastq.gz</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1156</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1156.fastq.gz</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1585</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1585.fastq.gz</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1974</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1974.fastq.gz</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1158</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1158.fastq.gz</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1589</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1589.fastq.gz</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1166</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1166.fastq.gz</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1557</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1557.fastq.gz</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2504</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2504.fastq.gz</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1180</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1180.fastq.gz</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1610</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1610.fastq.gz</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1628</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1628.fastq.gz</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2660</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2660.fastq.gz</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1184</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1184.fastq.gz</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1618</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1618.fastq.gz</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1630</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1630.fastq.gz</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1998</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1998.fastq.gz</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2654</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2654.fastq.gz</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1188</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1188.fastq.gz</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2646</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2646.fastq.gz</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1000</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1000.fastq.gz</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1009</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1009.fastq.gz</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" si="0"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1196</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1196.fastq.gz</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2161,8 +2161,8 @@
         <v>11358.1198</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B130" si="1">_xlfn.CONCAT("/mnt/datasets/project_2/tanzania/seqs/",TEXT(A67,"00000.0000"))</f>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1198</v>
+        <f t="shared" ref="B67:B130" si="1">_xlfn.CONCAT("/mnt/datasets/project_2/tanzania/seqs/",TEXT(A67,"00000.0000"),".fastq.gz")</f>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1198.fastq.gz</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1200</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1200.fastq.gz</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1202</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1202.fastq.gz</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1204</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1204.fastq.gz</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1208</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1208.fastq.gz</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1210</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1210.fastq.gz</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1214</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1214.fastq.gz</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1216</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1216.fastq.gz</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1230</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1230.fastq.gz</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1231</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1231.fastq.gz</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1232</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1232.fastq.gz</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1234</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1234.fastq.gz</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1235</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1235.fastq.gz</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1236</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1236.fastq.gz</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1237</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1237.fastq.gz</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1238</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1238.fastq.gz</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1239</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1239.fastq.gz</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1240</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1240.fastq.gz</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1241</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1241.fastq.gz</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1242</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1242.fastq.gz</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1243</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1243.fastq.gz</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1245</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1245.fastq.gz</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1247</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1247.fastq.gz</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1251</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1251.fastq.gz</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1252</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1252.fastq.gz</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1013</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1013.fastq.gz</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1260</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1260.fastq.gz</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1015</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1015.fastq.gz</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1279</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1279.fastq.gz</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1280</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1280.fastq.gz</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1281</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1281.fastq.gz</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1283</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1283.fastq.gz</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1285</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1285.fastq.gz</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1286</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1286.fastq.gz</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1017</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1017.fastq.gz</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1288</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1288.fastq.gz</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1292</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1292.fastq.gz</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1294</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1294.fastq.gz</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1296</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1296.fastq.gz</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1298</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1298.fastq.gz</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1300</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1300.fastq.gz</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1311</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1311.fastq.gz</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1317</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1317.fastq.gz</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1639</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1639.fastq.gz</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1641</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1641.fastq.gz</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1644</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1644.fastq.gz</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1645</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1645.fastq.gz</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1021</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1021.fastq.gz</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1342</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1342.fastq.gz</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1343</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1343.fastq.gz</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1345</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1345.fastq.gz</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1346</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1346.fastq.gz</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1504</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1504.fastq.gz</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1620</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1620.fastq.gz</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1001</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1001.fastq.gz</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1028</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1028.fastq.gz</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1700</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1700.fastq.gz</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1701</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1701.fastq.gz</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1702</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1702.fastq.gz</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1703</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1703.fastq.gz</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1704</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1704.fastq.gz</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1705</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1705.fastq.gz</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1706</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1706.fastq.gz</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B130" t="str">
         <f t="shared" si="1"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1707</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1707.fastq.gz</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2737,8 +2737,8 @@
         <v>11358.102999999999</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B194" si="2">_xlfn.CONCAT("/mnt/datasets/project_2/tanzania/seqs/",TEXT(A131,"00000.0000"))</f>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1030</v>
+        <f t="shared" ref="B131:B194" si="2">_xlfn.CONCAT("/mnt/datasets/project_2/tanzania/seqs/",TEXT(A131,"00000.0000"),".fastq.gz")</f>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1030.fastq.gz</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B132" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1710</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1710.fastq.gz</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1711</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1711.fastq.gz</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1712</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1712.fastq.gz</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1713</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1713.fastq.gz</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1714</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1714.fastq.gz</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1715</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1715.fastq.gz</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1716</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1716.fastq.gz</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1719</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1719.fastq.gz</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1721</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1721.fastq.gz</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1722</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1722.fastq.gz</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1034</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1034.fastq.gz</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1036</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1036.fastq.gz</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1741</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1741.fastq.gz</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1742</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1742.fastq.gz</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1743</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1743.fastq.gz</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1793</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1793.fastq.gz</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1780</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1780.fastq.gz</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1038</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1038.fastq.gz</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1813</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1813.fastq.gz</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1814</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1814.fastq.gz</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1815</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1815.fastq.gz</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1817</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1817.fastq.gz</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B154" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1819</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1819.fastq.gz</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="B155" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1040</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1040.fastq.gz</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1820</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1820.fastq.gz</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="B157" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1821</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1821.fastq.gz</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1822</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1822.fastq.gz</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1823</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1823.fastq.gz</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1042</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1042.fastq.gz</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B161" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1851</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1851.fastq.gz</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B162" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1846</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1846.fastq.gz</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B163" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1044</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1044.fastq.gz</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="B164" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1772</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1772.fastq.gz</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B165" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1773</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1773.fastq.gz</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B166" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1774</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1774.fastq.gz</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="B167" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1775</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1775.fastq.gz</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B168" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1777</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1777.fastq.gz</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="B169" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1046</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1046.fastq.gz</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B170" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1778</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1778.fastq.gz</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B171" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1920</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1920.fastq.gz</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B172" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1921</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1921.fastq.gz</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B173" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1002</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1002.fastq.gz</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="B174" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1048</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1048.fastq.gz</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="B175" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1935</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1935.fastq.gz</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B176" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1050</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1050.fastq.gz</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B177" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1942</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1942.fastq.gz</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B178" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1052</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1052.fastq.gz</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B179" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1953</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1953.fastq.gz</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B180" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1975</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1975.fastq.gz</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="B181" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2306</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2306.fastq.gz</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B182" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2314</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2314.fastq.gz</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B183" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2583</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2583.fastq.gz</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="B184" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2126</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2126.fastq.gz</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="B185" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2142</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2142.fastq.gz</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B186" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2143</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2143.fastq.gz</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="B187" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2149</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2149.fastq.gz</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B188" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2150</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2150.fastq.gz</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="B189" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2158</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2158.fastq.gz</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B190" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2193</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2193.fastq.gz</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="B191" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2289</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2289.fastq.gz</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B192" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2293</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2293.fastq.gz</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B193" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2301</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2301.fastq.gz</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="B194" t="str">
         <f t="shared" si="2"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2313</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2313.fastq.gz</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -3313,8 +3313,8 @@
         <v>11358.1003</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" ref="B195:B250" si="3">_xlfn.CONCAT("/mnt/datasets/project_2/tanzania/seqs/",TEXT(A195,"00000.0000"))</f>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1003</v>
+        <f t="shared" ref="B195:B250" si="3">_xlfn.CONCAT("/mnt/datasets/project_2/tanzania/seqs/",TEXT(A195,"00000.0000"),".fastq.gz")</f>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1003.fastq.gz</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B196" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2578</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2578.fastq.gz</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B197" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2588</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2588.fastq.gz</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B198" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2590</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2590.fastq.gz</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B199" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2591</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2591.fastq.gz</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B200" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2600</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2600.fastq.gz</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="B201" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2601</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2601.fastq.gz</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B202" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2603</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2603.fastq.gz</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B203" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2604</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2604.fastq.gz</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="B204" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1072</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1072.fastq.gz</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B205" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2609</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2609.fastq.gz</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B206" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2610</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2610.fastq.gz</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="B207" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2612</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2612.fastq.gz</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B208" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2613</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2613.fastq.gz</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B209" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2616</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2616.fastq.gz</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B210" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1074</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1074.fastq.gz</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B211" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2617</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2617.fastq.gz</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B212" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2618</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2618.fastq.gz</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B213" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2619</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2619.fastq.gz</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B214" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2620</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2620.fastq.gz</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B215" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2621</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2621.fastq.gz</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B216" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2622</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2622.fastq.gz</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="B217" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2623</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2623.fastq.gz</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B218" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2624</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2624.fastq.gz</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B219" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1076</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1076.fastq.gz</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B220" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2627</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2627.fastq.gz</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B221" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2632</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2632.fastq.gz</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B222" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2662</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.2662.fastq.gz</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B223" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1954</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1954.fastq.gz</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="B224" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1080</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1080.fastq.gz</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B225" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1084</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1084.fastq.gz</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="B226" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1086</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1086.fastq.gz</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B227" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1004</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1004.fastq.gz</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B228" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1088</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1088.fastq.gz</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="B229" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1090</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1090.fastq.gz</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B230" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1096</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1096.fastq.gz</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B231" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1102</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1102.fastq.gz</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B232" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1106</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1106.fastq.gz</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B233" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1116</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1116.fastq.gz</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="B234" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1122</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1122.fastq.gz</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="B235" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1130</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1130.fastq.gz</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="B236" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1142</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1142.fastq.gz</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B237" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1146</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1146.fastq.gz</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B238" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1148</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1148.fastq.gz</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="B239" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1150</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1150.fastq.gz</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B240" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1154</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1154.fastq.gz</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B241" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1160</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1160.fastq.gz</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B242" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1162</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1162.fastq.gz</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="B243" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1164</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1164.fastq.gz</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="B244" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1008</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1008.fastq.gz</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="B245" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1168</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1168.fastq.gz</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B246" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1178</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1178.fastq.gz</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B247" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1176</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1176.fastq.gz</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B248" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1182</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1182.fastq.gz</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B249" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1186</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1186.fastq.gz</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B250" t="str">
         <f t="shared" si="3"/>
-        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1190</v>
+        <v>/mnt/datasets/project_2/tanzania/seqs/11358.1190.fastq.gz</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -3817,8 +3817,8 @@
         <v>0</v>
       </c>
       <c r="B251" t="str">
-        <f>_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A251)</f>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267450</v>
+        <f>_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A251,"_1.fastq.gz")</f>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267450_1.fastq.gz</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -3826,8 +3826,8 @@
         <v>1</v>
       </c>
       <c r="B252" t="str">
-        <f t="shared" ref="B252:B315" si="4">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A252)</f>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267610</v>
+        <f t="shared" ref="B252:B315" si="4">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A252,"_1.fastq.gz")</f>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267610_1.fastq.gz</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B253" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267420</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267420_1.fastq.gz</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="B254" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267498</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267498_1.fastq.gz</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="B255" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267807</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267807_1.fastq.gz</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B256" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267605</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267605_1.fastq.gz</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B257" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267439</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267439_1.fastq.gz</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B258" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267483</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267483_1.fastq.gz</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="B259" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267529</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267529_1.fastq.gz</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="B260" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267588</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267588_1.fastq.gz</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="B261" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267654</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267654_1.fastq.gz</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B262" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267696</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267696_1.fastq.gz</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B263" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267432</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267432_1.fastq.gz</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="B264" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267632</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267632_1.fastq.gz</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B265" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267557</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267557_1.fastq.gz</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="B266" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267600</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267600_1.fastq.gz</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="B267" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267809</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267809_1.fastq.gz</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B268" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267670</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267670_1.fastq.gz</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="B269" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267469</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267469_1.fastq.gz</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B270" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267663</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267663_1.fastq.gz</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="B271" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267664</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267664_1.fastq.gz</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B272" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267659</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267659_1.fastq.gz</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B273" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267415</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267415_1.fastq.gz</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="B274" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267522</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267522_1.fastq.gz</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="B275" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267575</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267575_1.fastq.gz</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="B276" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267786</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267786_1.fastq.gz</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="B277" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267545</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267545_1.fastq.gz</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B278" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267623</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267623_1.fastq.gz</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="B279" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267511</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267511_1.fastq.gz</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B280" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267699</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267699_1.fastq.gz</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B281" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267672</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267672_1.fastq.gz</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B282" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267795</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267795_1.fastq.gz</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B283" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267708</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267708_1.fastq.gz</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B284" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267698</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267698_1.fastq.gz</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="B285" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267528</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267528_1.fastq.gz</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="B286" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267737</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267737_1.fastq.gz</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="B287" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267721</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267721_1.fastq.gz</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B288" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267464</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267464_1.fastq.gz</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B289" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267774</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267774_1.fastq.gz</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B290" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267647</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267647_1.fastq.gz</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B291" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267585</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267585_1.fastq.gz</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B292" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267642</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267642_1.fastq.gz</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B293" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267665</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267665_1.fastq.gz</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B294" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267452</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267452_1.fastq.gz</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="B295" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267382</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267382_1.fastq.gz</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="B296" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267662</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267662_1.fastq.gz</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B297" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267556</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267556_1.fastq.gz</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B298" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267603</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267603_1.fastq.gz</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B299" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267614</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267614_1.fastq.gz</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="B300" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267744</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267744_1.fastq.gz</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="B301" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267493</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267493_1.fastq.gz</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B302" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267771</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267771_1.fastq.gz</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B303" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267602</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267602_1.fastq.gz</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="B304" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267549</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267549_1.fastq.gz</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B305" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267705</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267705_1.fastq.gz</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B306" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267444</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267444_1.fastq.gz</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="B307" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267778</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267778_1.fastq.gz</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="B308" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267477</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267477_1.fastq.gz</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="B309" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267558</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267558_1.fastq.gz</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B310" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267775</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267775_1.fastq.gz</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="B311" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267421</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267421_1.fastq.gz</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B312" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267687</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267687_1.fastq.gz</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B313" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267384</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267384_1.fastq.gz</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="B314" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267389</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267389_1.fastq.gz</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B315" t="str">
         <f t="shared" si="4"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267674</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267674_1.fastq.gz</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -4402,8 +4402,8 @@
         <v>65</v>
       </c>
       <c r="B316" t="str">
-        <f t="shared" ref="B316:B379" si="5">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A316)</f>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267780</v>
+        <f t="shared" ref="B316:B379" si="5">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A316,"_1.fastq.gz")</f>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267780_1.fastq.gz</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B317" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267531</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267531_1.fastq.gz</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B318" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267684</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267684_1.fastq.gz</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="B319" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267631</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267631_1.fastq.gz</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B320" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267544</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267544_1.fastq.gz</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B321" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267472</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267472_1.fastq.gz</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B322" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267398</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267398_1.fastq.gz</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B323" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267692</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267692_1.fastq.gz</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="B324" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267816</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267816_1.fastq.gz</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="B325" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267527</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267527_1.fastq.gz</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B326" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267479</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267479_1.fastq.gz</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="B327" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267697</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267697_1.fastq.gz</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B328" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267635</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267635_1.fastq.gz</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="B329" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267793</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267793_1.fastq.gz</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="B330" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267548</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267548_1.fastq.gz</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="B331" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267738</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267738_1.fastq.gz</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B332" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267813</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267813_1.fastq.gz</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B333" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267749</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267749_1.fastq.gz</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="B334" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267571</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267571_1.fastq.gz</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="B335" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267486</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267486_1.fastq.gz</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B336" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267441</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267441_1.fastq.gz</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B337" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267799</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267799_1.fastq.gz</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B338" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267801</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267801_1.fastq.gz</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="B339" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267649</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267649_1.fastq.gz</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B340" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267555</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267555_1.fastq.gz</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="B341" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267516</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267516_1.fastq.gz</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B342" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267819</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267819_1.fastq.gz</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="B343" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267394</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267394_1.fastq.gz</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="B344" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267573</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267573_1.fastq.gz</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="B345" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267713</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267713_1.fastq.gz</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="B346" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267554</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267554_1.fastq.gz</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="B347" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267612</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267612_1.fastq.gz</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="B348" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267637</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267637_1.fastq.gz</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B349" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267466</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267466_1.fastq.gz</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B350" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267547</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267547_1.fastq.gz</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B351" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267814</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267814_1.fastq.gz</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="B352" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267752</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267752_1.fastq.gz</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B353" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267562</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267562_1.fastq.gz</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B354" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267817</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267817_1.fastq.gz</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="B355" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267646</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267646_1.fastq.gz</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B356" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267424</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267424_1.fastq.gz</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="B357" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267386</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267386_1.fastq.gz</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B358" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267492</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267492_1.fastq.gz</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="B359" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267794</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267794_1.fastq.gz</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B360" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267636</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267636_1.fastq.gz</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B361" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267712</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267712_1.fastq.gz</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B362" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267746</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267746_1.fastq.gz</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="B363" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267485</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267485_1.fastq.gz</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="B364" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267418</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267418_1.fastq.gz</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="B365" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267625</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267625_1.fastq.gz</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="B366" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267408</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267408_1.fastq.gz</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="B367" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267592</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267592_1.fastq.gz</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B368" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267785</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267785_1.fastq.gz</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B369" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267445</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267445_1.fastq.gz</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B370" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267743</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267743_1.fastq.gz</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="B371" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267570</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267570_1.fastq.gz</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B372" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267653</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267653_1.fastq.gz</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B373" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267812</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267812_1.fastq.gz</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="B374" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267400</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267400_1.fastq.gz</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="B375" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267626</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267626_1.fastq.gz</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B376" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267551</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267551_1.fastq.gz</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="B377" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267806</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267806_1.fastq.gz</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B378" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267766</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267766_1.fastq.gz</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="B379" t="str">
         <f t="shared" si="5"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267491</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267491_1.fastq.gz</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -4978,8 +4978,8 @@
         <v>129</v>
       </c>
       <c r="B380" t="str">
-        <f t="shared" ref="B380:B443" si="6">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A380)</f>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267727</v>
+        <f t="shared" ref="B380:B443" si="6">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A380,"_1.fastq.gz")</f>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267727_1.fastq.gz</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="B381" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267582</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267582_1.fastq.gz</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B382" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267624</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267624_1.fastq.gz</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B383" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267427</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267427_1.fastq.gz</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B384" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267729</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267729_1.fastq.gz</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B385" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267734</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267734_1.fastq.gz</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="B386" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267716</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267716_1.fastq.gz</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="B387" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267776</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267776_1.fastq.gz</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="B388" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267628</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267628_1.fastq.gz</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="B389" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267521</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267521_1.fastq.gz</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B390" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267621</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267621_1.fastq.gz</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="B391" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267513</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267513_1.fastq.gz</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="B392" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267412</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267412_1.fastq.gz</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B393" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267499</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267499_1.fastq.gz</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="B394" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267481</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267481_1.fastq.gz</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B395" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267802</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267802_1.fastq.gz</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B396" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267594</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267594_1.fastq.gz</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="B397" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267673</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267673_1.fastq.gz</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B398" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267650</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267650_1.fastq.gz</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="B399" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267596</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267596_1.fastq.gz</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="B400" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267508</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267508_1.fastq.gz</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B401" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267710</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267710_1.fastq.gz</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B402" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267409</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267409_1.fastq.gz</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="B403" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267552</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267552_1.fastq.gz</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="B404" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267717</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267717_1.fastq.gz</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="B405" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267639</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267639_1.fastq.gz</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B406" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267679</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267679_1.fastq.gz</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="B407" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267733</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267733_1.fastq.gz</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B408" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267728</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267728_1.fastq.gz</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="B409" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267396</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267396_1.fastq.gz</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B410" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267688</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267688_1.fastq.gz</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="B411" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267748</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267748_1.fastq.gz</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="B412" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267480</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267480_1.fastq.gz</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="B413" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267599</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267599_1.fastq.gz</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="B414" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267773</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267773_1.fastq.gz</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="B415" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267512</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267512_1.fastq.gz</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B416" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267790</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267790_1.fastq.gz</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B417" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267677</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267677_1.fastq.gz</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B418" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267789</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267789_1.fastq.gz</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="B419" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267758</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267758_1.fastq.gz</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="B420" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267613</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267613_1.fastq.gz</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="B421" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267455</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267455_1.fastq.gz</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B422" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267798</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267798_1.fastq.gz</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="B423" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267804</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267804_1.fastq.gz</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B424" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267564</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267564_1.fastq.gz</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="B425" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267579</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267579_1.fastq.gz</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="B426" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267669</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267669_1.fastq.gz</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="B427" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267416</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267416_1.fastq.gz</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B428" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267523</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267523_1.fastq.gz</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="B429" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267810</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267810_1.fastq.gz</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B430" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267765</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267765_1.fastq.gz</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="B431" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267534</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267534_1.fastq.gz</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="B432" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267559</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267559_1.fastq.gz</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B433" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267411</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267411_1.fastq.gz</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="B434" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267560</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267560_1.fastq.gz</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B435" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267566</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267566_1.fastq.gz</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="B436" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267731</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267731_1.fastq.gz</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="B437" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267448</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267448_1.fastq.gz</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B438" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267435</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267435_1.fastq.gz</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="B439" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267406</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267406_1.fastq.gz</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B440" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267640</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267640_1.fastq.gz</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="B441" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267538</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267538_1.fastq.gz</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="B442" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267572</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267572_1.fastq.gz</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="B443" t="str">
         <f t="shared" si="6"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267591</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267591_1.fastq.gz</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -5554,8 +5554,8 @@
         <v>193</v>
       </c>
       <c r="B444" t="str">
-        <f t="shared" ref="B444:B507" si="7">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A444)</f>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267514</v>
+        <f t="shared" ref="B444:B507" si="7">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A444,"_1.fastq.gz")</f>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267514_1.fastq.gz</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="B445" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267541</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267541_1.fastq.gz</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="B446" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267414</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267414_1.fastq.gz</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="B447" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267546</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267546_1.fastq.gz</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="B448" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267463</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267463_1.fastq.gz</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B449" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267454</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267454_1.fastq.gz</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B450" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267715</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267715_1.fastq.gz</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B451" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267630</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267630_1.fastq.gz</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B452" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267390</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267390_1.fastq.gz</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="B453" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267419</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267419_1.fastq.gz</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B454" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267458</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267458_1.fastq.gz</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="B455" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267490</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267490_1.fastq.gz</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="B456" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267397</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267397_1.fastq.gz</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B457" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267542</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267542_1.fastq.gz</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B458" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267638</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267638_1.fastq.gz</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="B459" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267730</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267730_1.fastq.gz</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="B460" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267761</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267761_1.fastq.gz</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="B461" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267772</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267772_1.fastq.gz</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="B462" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267644</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267644_1.fastq.gz</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="B463" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267597</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267597_1.fastq.gz</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="B464" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267792</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267792_1.fastq.gz</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B465" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267608</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267608_1.fastq.gz</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B466" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267714</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267714_1.fastq.gz</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="B467" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267617</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267617_1.fastq.gz</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="B468" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267404</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267404_1.fastq.gz</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B469" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267760</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267760_1.fastq.gz</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B470" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267742</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267742_1.fastq.gz</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="B471" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267399</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267399_1.fastq.gz</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B472" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267656</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267656_1.fastq.gz</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="B473" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267380</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267380_1.fastq.gz</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="B474" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267496</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267496_1.fastq.gz</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="B475" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267519</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267519_1.fastq.gz</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B476" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267392</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267392_1.fastq.gz</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B477" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267689</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267689_1.fastq.gz</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B478" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267756</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267756_1.fastq.gz</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="B479" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267740</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267740_1.fastq.gz</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="B480" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267429</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267429_1.fastq.gz</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B481" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267413</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267413_1.fastq.gz</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B482" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267476</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267476_1.fastq.gz</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="B483" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267702</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267702_1.fastq.gz</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B484" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267682</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267682_1.fastq.gz</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B485" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267641</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267641_1.fastq.gz</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="B486" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267751</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267751_1.fastq.gz</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="B487" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267502</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267502_1.fastq.gz</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B488" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267703</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267703_1.fastq.gz</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="B489" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267383</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267383_1.fastq.gz</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="B490" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267459</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267459_1.fastq.gz</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="B491" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267403</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267403_1.fastq.gz</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B492" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267805</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267805_1.fastq.gz</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="B493" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267550</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267550_1.fastq.gz</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="B494" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267753</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267753_1.fastq.gz</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="B495" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267755</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267755_1.fastq.gz</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="B496" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267577</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267577_1.fastq.gz</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B497" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267504</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267504_1.fastq.gz</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B498" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267615</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267615_1.fastq.gz</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="B499" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267604</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267604_1.fastq.gz</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="B500" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267645</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267645_1.fastq.gz</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B501" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267587</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267587_1.fastq.gz</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B502" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267634</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267634_1.fastq.gz</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B503" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267590</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267590_1.fastq.gz</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B504" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267791</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267791_1.fastq.gz</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="B505" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267478</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267478_1.fastq.gz</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="B506" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267537</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267537_1.fastq.gz</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="B507" t="str">
         <f t="shared" si="7"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267581</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267581_1.fastq.gz</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -6130,8 +6130,8 @@
         <v>257</v>
       </c>
       <c r="B508" t="str">
-        <f t="shared" ref="B508:B571" si="8">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A508)</f>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267671</v>
+        <f t="shared" ref="B508:B571" si="8">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A508,"_1.fastq.gz")</f>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267671_1.fastq.gz</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="B509" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267482</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267482_1.fastq.gz</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="B510" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267803</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267803_1.fastq.gz</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="B511" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267601</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267601_1.fastq.gz</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B512" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267784</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267784_1.fastq.gz</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B513" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267781</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267781_1.fastq.gz</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="B514" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267667</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267667_1.fastq.gz</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="B515" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267797</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267797_1.fastq.gz</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="B516" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267443</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267443_1.fastq.gz</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="B517" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267422</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267422_1.fastq.gz</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="B518" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267407</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267407_1.fastq.gz</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B519" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267473</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267473_1.fastq.gz</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B520" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267788</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267788_1.fastq.gz</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="B521" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267720</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267720_1.fastq.gz</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B522" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267460</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267460_1.fastq.gz</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="B523" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267770</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267770_1.fastq.gz</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="B524" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267763</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267763_1.fastq.gz</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="B525" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267423</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267423_1.fastq.gz</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B526" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267525</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267525_1.fastq.gz</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="B527" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267446</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267446_1.fastq.gz</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="B528" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267619</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267619_1.fastq.gz</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B529" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267461</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267461_1.fastq.gz</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="B530" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267578</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267578_1.fastq.gz</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="B531" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267724</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267724_1.fastq.gz</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="B532" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267503</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267503_1.fastq.gz</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="B533" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267426</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267426_1.fastq.gz</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="B534" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267711</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267711_1.fastq.gz</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="B535" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267497</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267497_1.fastq.gz</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B536" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267811</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267811_1.fastq.gz</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B537" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267536</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267536_1.fastq.gz</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="B538" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267690</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267690_1.fastq.gz</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="B539" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267543</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267543_1.fastq.gz</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="B540" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267425</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267425_1.fastq.gz</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -6428,7 +6428,7 @@
       </c>
       <c r="B541" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267474</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267474_1.fastq.gz</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="B542" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267769</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267769_1.fastq.gz</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B543" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267440</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267440_1.fastq.gz</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="B544" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267451</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267451_1.fastq.gz</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B545" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267694</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267694_1.fastq.gz</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="B546" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267706</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267706_1.fastq.gz</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="B547" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267658</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267658_1.fastq.gz</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="B548" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267510</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267510_1.fastq.gz</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="B549" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267680</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267680_1.fastq.gz</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="B550" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267652</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267652_1.fastq.gz</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="B551" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267449</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267449_1.fastq.gz</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="B552" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267436</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267436_1.fastq.gz</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B553" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267530</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267530_1.fastq.gz</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B554" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267507</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267507_1.fastq.gz</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="B555" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267569</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267569_1.fastq.gz</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B556" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267741</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267741_1.fastq.gz</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="B557" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267568</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267568_1.fastq.gz</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="B558" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267465</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267465_1.fastq.gz</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="B559" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267681</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267681_1.fastq.gz</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="B560" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267651</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267651_1.fastq.gz</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B561" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267747</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267747_1.fastq.gz</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="B562" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267704</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267704_1.fastq.gz</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="B563" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267675</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267675_1.fastq.gz</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="B564" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267783</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267783_1.fastq.gz</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="B565" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267593</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267593_1.fastq.gz</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="B566" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267553</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267553_1.fastq.gz</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="B567" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267576</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267576_1.fastq.gz</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B568" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267648</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267648_1.fastq.gz</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B569" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267385</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267385_1.fastq.gz</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="B570" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267410</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267410_1.fastq.gz</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="B571" t="str">
         <f t="shared" si="8"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267467</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267467_1.fastq.gz</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
@@ -6706,8 +6706,8 @@
         <v>321</v>
       </c>
       <c r="B572" t="str">
-        <f t="shared" ref="B572:B633" si="9">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A572)</f>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267764</v>
+        <f t="shared" ref="B572:B633" si="9">_xlfn.CONCAT("/mnt/datasets/project_2/colombia/seqs/",A572,"_1.fastq.gz")</f>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267764_1.fastq.gz</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="B573" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267685</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267685_1.fastq.gz</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="B574" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267607</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267607_1.fastq.gz</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="B575" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267693</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267693_1.fastq.gz</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="B576" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267518</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267518_1.fastq.gz</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B577" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267487</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267487_1.fastq.gz</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="B578" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267723</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267723_1.fastq.gz</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="B579" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267657</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267657_1.fastq.gz</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="B580" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267475</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267475_1.fastq.gz</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="B581" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267583</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267583_1.fastq.gz</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="B582" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267759</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267759_1.fastq.gz</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="B583" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267539</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267539_1.fastq.gz</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="B584" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267484</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267484_1.fastq.gz</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="B585" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267629</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267629_1.fastq.gz</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="B586" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267815</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267815_1.fastq.gz</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B587" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267533</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267533_1.fastq.gz</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B588" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267661</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267661_1.fastq.gz</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="B589" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267726</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267726_1.fastq.gz</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="B590" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267470</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267470_1.fastq.gz</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="B591" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267722</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267722_1.fastq.gz</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="B592" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267754</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267754_1.fastq.gz</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B593" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267442</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267442_1.fastq.gz</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="B594" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267777</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267777_1.fastq.gz</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="B595" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267725</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267725_1.fastq.gz</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B596" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267782</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267782_1.fastq.gz</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="B597" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267691</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267691_1.fastq.gz</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="B598" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267719</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267719_1.fastq.gz</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="B599" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267395</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267395_1.fastq.gz</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="B600" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267437</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267437_1.fastq.gz</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="B601" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267505</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267505_1.fastq.gz</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="B602" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267808</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267808_1.fastq.gz</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B603" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267622</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267622_1.fastq.gz</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="B604" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267468</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267468_1.fastq.gz</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B605" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267580</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267580_1.fastq.gz</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="B606" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267387</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267387_1.fastq.gz</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="B607" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267611</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267611_1.fastq.gz</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="B608" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267471</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267471_1.fastq.gz</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B609" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267695</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267695_1.fastq.gz</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="B610" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267567</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267567_1.fastq.gz</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="B611" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267457</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267457_1.fastq.gz</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="B612" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267779</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267779_1.fastq.gz</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B613" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267750</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267750_1.fastq.gz</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="B614" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267393</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267393_1.fastq.gz</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="B615" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267609</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267609_1.fastq.gz</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="B616" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267739</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267739_1.fastq.gz</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="B617" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267700</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267700_1.fastq.gz</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="B618" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267438</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267438_1.fastq.gz</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="B619" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267431</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267431_1.fastq.gz</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B620" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267678</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267678_1.fastq.gz</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B621" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267709</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267709_1.fastq.gz</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B622" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267598</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267598_1.fastq.gz</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="B623" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267762</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267762_1.fastq.gz</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="B624" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267586</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267586_1.fastq.gz</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B625" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267462</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267462_1.fastq.gz</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="B626" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267526</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267526_1.fastq.gz</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
@@ -7202,7 +7202,7 @@
       </c>
       <c r="B627" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267391</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267391_1.fastq.gz</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B628" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267589</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267589_1.fastq.gz</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="B629" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267535</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267535_1.fastq.gz</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="B630" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267660</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267660_1.fastq.gz</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="B631" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267627</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267627_1.fastq.gz</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="B632" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267683</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267683_1.fastq.gz</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="B633" t="str">
         <f t="shared" si="9"/>
-        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267379</v>
+        <v>/mnt/datasets/project_2/colombia/seqs/SRR6267379_1.fastq.gz</v>
       </c>
     </row>
   </sheetData>
